--- a/data/trans_orig/iP13_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP13_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CD08DFC-DAFC-4B3B-8395-CD06289351B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6489C25-6E43-490A-9D02-C176B9690F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D77328D4-9E27-4BC4-A075-2AADFFBBC0DD}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{8F8BA918-45AD-4E30-B370-80C01EF570DF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -134,6 +134,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -191,63 +248,6 @@
     <t>6,01%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
     <t>93,57%</t>
   </si>
   <si>
@@ -347,6 +347,60 @@
     <t>9,92%</t>
   </si>
   <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
     <t>95,03%</t>
   </si>
   <si>
@@ -401,60 +455,6 @@
     <t>6,92%</t>
   </si>
   <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
     <t>93,86%</t>
   </si>
   <si>
@@ -566,6 +566,48 @@
     <t>8,51%</t>
   </si>
   <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
     <t>92,96%</t>
   </si>
   <si>
@@ -608,48 +650,6 @@
     <t>5,72%</t>
   </si>
   <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
     <t>94,22%</t>
   </si>
   <si>
@@ -743,6 +743,54 @@
     <t>10,36%</t>
   </si>
   <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
     <t>94,04%</t>
   </si>
   <si>
@@ -795,54 +843,6 @@
   </si>
   <si>
     <t>7,79%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
   </si>
   <si>
     <t>91,74%</t>
@@ -1276,7 +1276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E671B41-F34B-4E9B-97B8-EAB15167B1CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E3F96B-0E21-4C06-9B4F-F4B15B900F9D}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1549,10 +1549,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>404</v>
+        <v>312</v>
       </c>
       <c r="D7" s="7">
-        <v>269817</v>
+        <v>206141</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1564,10 +1564,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>378</v>
+        <v>289</v>
       </c>
       <c r="I7" s="7">
-        <v>254447</v>
+        <v>195949</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1579,10 +1579,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>782</v>
+        <v>601</v>
       </c>
       <c r="N7" s="7">
-        <v>524264</v>
+        <v>402089</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1603,7 +1603,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="7">
-        <v>11681</v>
+        <v>11900</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1615,10 +1615,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I8" s="7">
-        <v>11156</v>
+        <v>9273</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1630,10 +1630,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N8" s="7">
-        <v>22837</v>
+        <v>21174</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1651,10 +1651,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D9" s="7">
-        <v>281498</v>
+        <v>218041</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1666,10 +1666,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="I9" s="7">
-        <v>265603</v>
+        <v>205222</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1681,10 +1681,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>816</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>547101</v>
+        <v>423263</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1704,10 +1704,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>312</v>
+        <v>404</v>
       </c>
       <c r="D10" s="7">
-        <v>206141</v>
+        <v>269817</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1719,10 +1719,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="I10" s="7">
-        <v>195949</v>
+        <v>254447</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1734,10 +1734,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>601</v>
+        <v>782</v>
       </c>
       <c r="N10" s="7">
-        <v>402089</v>
+        <v>524264</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1758,7 +1758,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="7">
-        <v>11900</v>
+        <v>11681</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1770,10 +1770,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I11" s="7">
-        <v>9273</v>
+        <v>11156</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1785,10 +1785,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N11" s="7">
-        <v>21174</v>
+        <v>22837</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1806,10 +1806,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D12" s="7">
-        <v>218041</v>
+        <v>281498</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1821,10 +1821,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="I12" s="7">
-        <v>205222</v>
+        <v>265603</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1836,10 +1836,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>816</v>
       </c>
       <c r="N12" s="7">
-        <v>423263</v>
+        <v>547101</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1865,7 +1865,7 @@
         <v>686570</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>69</v>
@@ -1916,7 +1916,7 @@
         <v>36130</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>76</v>
@@ -2022,7 +2022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1E14F3-FB26-4889-9AB9-6A97B8C9D424}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04702B6E-1263-4339-B8F1-57748F4F5163}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2295,10 +2295,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>381</v>
+        <v>318</v>
       </c>
       <c r="D7" s="7">
-        <v>257854</v>
+        <v>229585</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>102</v>
@@ -2310,10 +2310,10 @@
         <v>104</v>
       </c>
       <c r="H7" s="7">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="I7" s="7">
-        <v>243384</v>
+        <v>218362</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>105</v>
@@ -2325,10 +2325,10 @@
         <v>107</v>
       </c>
       <c r="M7" s="7">
-        <v>727</v>
+        <v>624</v>
       </c>
       <c r="N7" s="7">
-        <v>501238</v>
+        <v>447948</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>108</v>
@@ -2346,10 +2346,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" s="7">
-        <v>13497</v>
+        <v>12406</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>111</v>
@@ -2361,10 +2361,10 @@
         <v>113</v>
       </c>
       <c r="H8" s="7">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I8" s="7">
-        <v>13027</v>
+        <v>10483</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>114</v>
@@ -2376,10 +2376,10 @@
         <v>116</v>
       </c>
       <c r="M8" s="7">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N8" s="7">
-        <v>26524</v>
+        <v>22888</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>117</v>
@@ -2397,10 +2397,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>400</v>
+        <v>335</v>
       </c>
       <c r="D9" s="7">
-        <v>271351</v>
+        <v>241991</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2412,10 +2412,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="I9" s="7">
-        <v>256411</v>
+        <v>228845</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2427,10 +2427,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>765</v>
+        <v>655</v>
       </c>
       <c r="N9" s="7">
-        <v>527762</v>
+        <v>470836</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2450,10 +2450,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>318</v>
+        <v>381</v>
       </c>
       <c r="D10" s="7">
-        <v>229585</v>
+        <v>257854</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>120</v>
@@ -2465,10 +2465,10 @@
         <v>122</v>
       </c>
       <c r="H10" s="7">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="I10" s="7">
-        <v>218362</v>
+        <v>243384</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>123</v>
@@ -2480,10 +2480,10 @@
         <v>125</v>
       </c>
       <c r="M10" s="7">
-        <v>624</v>
+        <v>727</v>
       </c>
       <c r="N10" s="7">
-        <v>447948</v>
+        <v>501238</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>126</v>
@@ -2501,10 +2501,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11" s="7">
-        <v>12406</v>
+        <v>13497</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>129</v>
@@ -2516,10 +2516,10 @@
         <v>131</v>
       </c>
       <c r="H11" s="7">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I11" s="7">
-        <v>10483</v>
+        <v>13027</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>132</v>
@@ -2531,10 +2531,10 @@
         <v>134</v>
       </c>
       <c r="M11" s="7">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N11" s="7">
-        <v>22888</v>
+        <v>26524</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>135</v>
@@ -2552,10 +2552,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>335</v>
+        <v>400</v>
       </c>
       <c r="D12" s="7">
-        <v>241991</v>
+        <v>271351</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2567,10 +2567,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>320</v>
+        <v>365</v>
       </c>
       <c r="I12" s="7">
-        <v>228845</v>
+        <v>256411</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2582,10 +2582,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>655</v>
+        <v>765</v>
       </c>
       <c r="N12" s="7">
-        <v>470836</v>
+        <v>527762</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2768,7 +2768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B82266-BAEE-4B2F-9A5D-D76D20EA2E6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8550FC-5E42-476F-BBC6-73090F0E904A}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3041,49 +3041,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="D7" s="7">
-        <v>269810</v>
+        <v>239249</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>175</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H7" s="7">
+        <v>343</v>
+      </c>
+      <c r="I7" s="7">
+        <v>224922</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="M7" s="7">
+        <v>691</v>
+      </c>
+      <c r="N7" s="7">
+        <v>464171</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="H7" s="7">
-        <v>361</v>
-      </c>
-      <c r="I7" s="7">
-        <v>257232</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="M7" s="7">
-        <v>726</v>
-      </c>
-      <c r="N7" s="7">
-        <v>527043</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,46 +3092,46 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="7">
-        <v>11819</v>
+        <v>10803</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H8" s="7">
+        <v>17</v>
+      </c>
+      <c r="I8" s="7">
+        <v>10411</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="M8" s="7">
+        <v>32</v>
+      </c>
+      <c r="N8" s="7">
+        <v>21214</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H8" s="7">
-        <v>14</v>
-      </c>
-      <c r="I8" s="7">
-        <v>10538</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="M8" s="7">
-        <v>30</v>
-      </c>
-      <c r="N8" s="7">
-        <v>22356</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>188</v>
@@ -3143,10 +3143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D9" s="7">
-        <v>281629</v>
+        <v>250052</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3158,10 +3158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="I9" s="7">
-        <v>267770</v>
+        <v>235333</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3173,10 +3173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>756</v>
+        <v>723</v>
       </c>
       <c r="N9" s="7">
-        <v>549399</v>
+        <v>485385</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3196,49 +3196,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="D10" s="7">
-        <v>239249</v>
+        <v>269810</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="7">
+        <v>361</v>
+      </c>
+      <c r="I10" s="7">
+        <v>257232</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H10" s="7">
-        <v>343</v>
-      </c>
-      <c r="I10" s="7">
-        <v>224922</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>726</v>
+      </c>
+      <c r="N10" s="7">
+        <v>527043</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="M10" s="7">
-        <v>691</v>
-      </c>
-      <c r="N10" s="7">
-        <v>464171</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,46 +3247,46 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" s="7">
-        <v>10803</v>
+        <v>11819</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>14</v>
+      </c>
+      <c r="I11" s="7">
+        <v>10538</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="H11" s="7">
-        <v>17</v>
-      </c>
-      <c r="I11" s="7">
-        <v>10411</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>30</v>
+      </c>
+      <c r="N11" s="7">
+        <v>22356</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="M11" s="7">
-        <v>32</v>
-      </c>
-      <c r="N11" s="7">
-        <v>21214</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>202</v>
@@ -3298,10 +3298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D12" s="7">
-        <v>250052</v>
+        <v>281629</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3313,10 +3313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="I12" s="7">
-        <v>235333</v>
+        <v>267770</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3328,10 +3328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="N12" s="7">
-        <v>485385</v>
+        <v>549399</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3357,7 +3357,7 @@
         <v>711958</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>203</v>
@@ -3408,7 +3408,7 @@
         <v>32886</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>211</v>
@@ -3514,7 +3514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46BDC25-9897-48F7-ACF3-D18B11FC268B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2BA442-A1CF-40A5-93FE-24DB09D4681D}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3659,7 +3659,7 @@
         <v>224</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>396</v>
@@ -3674,7 +3674,7 @@
         <v>226</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,7 +3707,7 @@
         <v>230</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>231</v>
@@ -3722,7 +3722,7 @@
         <v>232</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>233</v>
@@ -3787,49 +3787,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>449</v>
+        <v>251</v>
       </c>
       <c r="D7" s="7">
-        <v>378690</v>
+        <v>190521</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>267</v>
+      </c>
+      <c r="I7" s="7">
+        <v>189218</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="H7" s="7">
-        <v>431</v>
-      </c>
-      <c r="I7" s="7">
-        <v>328983</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>518</v>
+      </c>
+      <c r="N7" s="7">
+        <v>379740</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="M7" s="7">
-        <v>880</v>
-      </c>
-      <c r="N7" s="7">
-        <v>707673</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,49 +3838,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D8" s="7">
-        <v>24020</v>
+        <v>13860</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>14</v>
+      </c>
+      <c r="I8" s="7">
+        <v>9049</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="H8" s="7">
-        <v>31</v>
-      </c>
-      <c r="I8" s="7">
-        <v>21825</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>33</v>
+      </c>
+      <c r="N8" s="7">
+        <v>22909</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="M8" s="7">
-        <v>61</v>
-      </c>
-      <c r="N8" s="7">
-        <v>45846</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3889,10 +3889,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>479</v>
+        <v>270</v>
       </c>
       <c r="D9" s="7">
-        <v>402710</v>
+        <v>204381</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3904,10 +3904,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>462</v>
+        <v>281</v>
       </c>
       <c r="I9" s="7">
-        <v>350808</v>
+        <v>198267</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3919,10 +3919,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>941</v>
+        <v>551</v>
       </c>
       <c r="N9" s="7">
-        <v>753519</v>
+        <v>402649</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3942,49 +3942,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>449</v>
+      </c>
+      <c r="D10" s="7">
+        <v>378690</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D10" s="7">
-        <v>190521</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>431</v>
+      </c>
+      <c r="I10" s="7">
+        <v>328983</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="H10" s="7">
-        <v>267</v>
-      </c>
-      <c r="I10" s="7">
-        <v>189218</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>880</v>
+      </c>
+      <c r="N10" s="7">
+        <v>707673</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="M10" s="7">
-        <v>518</v>
-      </c>
-      <c r="N10" s="7">
-        <v>379740</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,13 +3993,13 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7">
-        <v>13860</v>
+        <v>24020</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>260</v>
@@ -4008,10 +4008,10 @@
         <v>261</v>
       </c>
       <c r="H11" s="7">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I11" s="7">
-        <v>9049</v>
+        <v>21825</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>262</v>
@@ -4023,10 +4023,10 @@
         <v>264</v>
       </c>
       <c r="M11" s="7">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="N11" s="7">
-        <v>22909</v>
+        <v>45846</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>265</v>
@@ -4044,10 +4044,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>270</v>
+        <v>479</v>
       </c>
       <c r="D12" s="7">
-        <v>204381</v>
+        <v>402710</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4059,10 +4059,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>462</v>
       </c>
       <c r="I12" s="7">
-        <v>198267</v>
+        <v>350808</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4074,10 +4074,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>551</v>
+        <v>941</v>
       </c>
       <c r="N12" s="7">
-        <v>402649</v>
+        <v>753519</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4103,7 +4103,7 @@
         <v>678007</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>268</v>
@@ -4154,7 +4154,7 @@
         <v>47023</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>275</v>

--- a/data/trans_orig/iP13_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP13_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6489C25-6E43-490A-9D02-C176B9690F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71691D17-2EBA-476A-96C7-DF51C099B11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{8F8BA918-45AD-4E30-B370-80C01EF570DF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2A87806F-586F-4DB4-B656-E0F8F28F49B3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="338">
   <si>
     <t>Menores según si se han visto obligados a quedarse en cama mas de la mitad del dia por algún dolor o síntoma en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,823 +68,991 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>5/9</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si se han visto obligados a quedarse en cama mas de la mitad del dia por algún dolor o síntoma en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>Menores según si se han visto obligados a quedarse en cama mas de la mitad del dia por algún dolor o síntoma en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>Menores según si se han visto obligados a quedarse en cama mas de la mitad del dia por algún dolor o síntoma en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
   </si>
   <si>
     <t>94,54%</t>
   </si>
   <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
   </si>
   <si>
     <t>94,19%</t>
   </si>
   <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>Menores según si se han visto obligados a quedarse en cama mas de la mitad del dia por algún dolor o síntoma en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
     <t>92,43%</t>
   </si>
   <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>Menores según si se han visto obligados a quedarse en cama mas de la mitad del dia por algún dolor o síntoma en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>Menores según si se han visto obligados a quedarse en cama mas de la mitad del dia por algún dolor o síntoma en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
+    <t>95,7%</t>
   </si>
   <si>
     <t>93,84%</t>
   </si>
   <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
+    <t>92,66%</t>
   </si>
 </sst>
 </file>
@@ -895,7 +1063,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -991,39 +1159,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1075,7 +1243,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1186,13 +1354,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1201,6 +1362,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1265,19 +1433,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E3F96B-0E21-4C06-9B4F-F4B15B900F9D}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E953274B-9D4C-431C-AADB-4F4D214EEE6F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1394,10 +1582,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>315</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7">
-        <v>210613</v>
+        <v>8612</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1409,10 +1597,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>304</v>
+        <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>200215</v>
+        <v>7398</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1424,10 +1612,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>619</v>
+        <v>25</v>
       </c>
       <c r="N4" s="7">
-        <v>410828</v>
+        <v>16010</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1445,10 +1633,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="D5" s="7">
-        <v>12548</v>
+        <v>112768</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1460,10 +1648,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="I5" s="7">
-        <v>9981</v>
+        <v>98773</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1475,10 +1663,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>35</v>
+        <v>319</v>
       </c>
       <c r="N5" s="7">
-        <v>22529</v>
+        <v>211541</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1496,10 +1684,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="D6" s="7">
-        <v>223161</v>
+        <v>121380</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1511,10 +1699,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="I6" s="7">
-        <v>210196</v>
+        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1526,10 +1714,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>654</v>
+        <v>344</v>
       </c>
       <c r="N6" s="7">
-        <v>433357</v>
+        <v>227551</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1549,10 +1737,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>312</v>
+        <v>18</v>
       </c>
       <c r="D7" s="7">
-        <v>206141</v>
+        <v>11814</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1564,10 +1752,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>289</v>
+        <v>18</v>
       </c>
       <c r="I7" s="7">
-        <v>195949</v>
+        <v>11186</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1579,10 +1767,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>601</v>
+        <v>36</v>
       </c>
       <c r="N7" s="7">
-        <v>402089</v>
+        <v>23000</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1600,10 +1788,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>18</v>
+        <v>364</v>
       </c>
       <c r="D8" s="7">
-        <v>11900</v>
+        <v>241942</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1615,10 +1803,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>15</v>
+        <v>361</v>
       </c>
       <c r="I8" s="7">
-        <v>9273</v>
+        <v>242019</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1630,10 +1818,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>33</v>
+        <v>725</v>
       </c>
       <c r="N8" s="7">
-        <v>21174</v>
+        <v>483961</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1651,10 +1839,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>218041</v>
+        <v>253756</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1666,10 +1854,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="I9" s="7">
-        <v>205222</v>
+        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1681,10 +1869,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>634</v>
+        <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>423263</v>
+        <v>506961</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1704,10 +1892,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>404</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>269817</v>
+        <v>9191</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1719,10 +1907,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>378</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>254447</v>
+        <v>3737</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1734,10 +1922,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>782</v>
+        <v>19</v>
       </c>
       <c r="N10" s="7">
-        <v>524264</v>
+        <v>12928</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1755,10 +1943,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="D11" s="7">
-        <v>11681</v>
+        <v>132324</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1770,10 +1958,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="I11" s="7">
-        <v>11156</v>
+        <v>123811</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1785,10 +1973,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>34</v>
+        <v>384</v>
       </c>
       <c r="N11" s="7">
-        <v>22837</v>
+        <v>256135</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1806,10 +1994,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="D12" s="7">
-        <v>281498</v>
+        <v>141515</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1821,10 +2009,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I12" s="7">
-        <v>265603</v>
+        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1836,10 +2024,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>816</v>
+        <v>403</v>
       </c>
       <c r="N12" s="7">
-        <v>547101</v>
+        <v>269063</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1853,55 +2041,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1031</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>686570</v>
+        <v>6513</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>971</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>650611</v>
+        <v>8089</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>2002</v>
+        <v>22</v>
       </c>
       <c r="N13" s="7">
-        <v>1337181</v>
+        <v>14602</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1910,49 +2098,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="D14" s="7">
-        <v>36130</v>
+        <v>199536</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>47</v>
+        <v>274</v>
       </c>
       <c r="I14" s="7">
-        <v>30410</v>
+        <v>186008</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>102</v>
+        <v>574</v>
       </c>
       <c r="N14" s="7">
-        <v>66540</v>
+        <v>385544</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1961,55 +2149,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>310</v>
+      </c>
+      <c r="D15" s="7">
+        <v>206049</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>286</v>
+      </c>
+      <c r="I15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>596</v>
+      </c>
+      <c r="N15" s="7">
+        <v>400146</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>55</v>
+      </c>
+      <c r="D16" s="7">
+        <v>36130</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
+        <v>47</v>
+      </c>
+      <c r="I16" s="7">
+        <v>30410</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M16" s="7">
+        <v>102</v>
+      </c>
+      <c r="N16" s="7">
+        <v>66540</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1031</v>
+      </c>
+      <c r="D17" s="7">
+        <v>686570</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7">
+        <v>971</v>
+      </c>
+      <c r="I17" s="7">
+        <v>650611</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2002</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1337181</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1086</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>722700</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>681021</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>2104</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1403721</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2022,8 +2371,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04702B6E-1263-4339-B8F1-57748F4F5163}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4CA45B-D8A5-4312-8DF2-2E48DC12FC1A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2039,7 +2388,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2140,49 +2489,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>307</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>216893</v>
+        <v>11744</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>316</v>
+        <v>18</v>
       </c>
       <c r="I4" s="7">
-        <v>209815</v>
+        <v>12427</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>623</v>
+        <v>34</v>
       </c>
       <c r="N4" s="7">
-        <v>426708</v>
+        <v>24170</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2191,49 +2540,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>188</v>
       </c>
       <c r="D5" s="7">
-        <v>20198</v>
+        <v>132172</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="I5" s="7">
-        <v>15111</v>
+        <v>133752</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>50</v>
+        <v>388</v>
       </c>
       <c r="N5" s="7">
-        <v>35309</v>
+        <v>265925</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2242,10 +2591,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>335</v>
+        <v>204</v>
       </c>
       <c r="D6" s="7">
-        <v>237091</v>
+        <v>143916</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2257,10 +2606,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>338</v>
+        <v>218</v>
       </c>
       <c r="I6" s="7">
-        <v>224926</v>
+        <v>146179</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2272,10 +2621,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>673</v>
+        <v>422</v>
       </c>
       <c r="N6" s="7">
-        <v>462017</v>
+        <v>290095</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2295,49 +2644,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>318</v>
+        <v>26</v>
       </c>
       <c r="D7" s="7">
-        <v>229585</v>
+        <v>18879</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="H7" s="7">
-        <v>306</v>
+        <v>15</v>
       </c>
       <c r="I7" s="7">
-        <v>218362</v>
+        <v>11051</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="M7" s="7">
-        <v>624</v>
+        <v>41</v>
       </c>
       <c r="N7" s="7">
-        <v>447948</v>
+        <v>29930</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2346,49 +2695,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>17</v>
+        <v>348</v>
       </c>
       <c r="D8" s="7">
-        <v>12406</v>
+        <v>250112</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
-        <v>14</v>
+        <v>324</v>
       </c>
       <c r="I8" s="7">
-        <v>10483</v>
+        <v>224572</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
-        <v>31</v>
+        <v>672</v>
       </c>
       <c r="N8" s="7">
-        <v>22888</v>
+        <v>474685</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2397,10 +2746,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="D9" s="7">
-        <v>241991</v>
+        <v>268991</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2412,10 +2761,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="I9" s="7">
-        <v>228845</v>
+        <v>235623</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2427,10 +2776,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>655</v>
+        <v>713</v>
       </c>
       <c r="N9" s="7">
-        <v>470836</v>
+        <v>504615</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2450,49 +2799,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>381</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>257854</v>
+        <v>4403</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
-        <v>346</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>243384</v>
+        <v>6161</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
-        <v>727</v>
+        <v>15</v>
       </c>
       <c r="N10" s="7">
-        <v>501238</v>
+        <v>10564</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2501,49 +2850,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>19</v>
+        <v>222</v>
       </c>
       <c r="D11" s="7">
-        <v>13497</v>
+        <v>154168</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="H11" s="7">
-        <v>19</v>
+        <v>214</v>
       </c>
       <c r="I11" s="7">
-        <v>13027</v>
+        <v>150882</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
-        <v>38</v>
+        <v>436</v>
       </c>
       <c r="N11" s="7">
-        <v>26524</v>
+        <v>305050</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2552,10 +2901,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>400</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7">
-        <v>271351</v>
+        <v>158571</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2567,10 +2916,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>365</v>
+        <v>223</v>
       </c>
       <c r="I12" s="7">
-        <v>256411</v>
+        <v>157043</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2582,10 +2931,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>765</v>
+        <v>451</v>
       </c>
       <c r="N12" s="7">
-        <v>527762</v>
+        <v>315614</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2599,55 +2948,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1006</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>704333</v>
+        <v>11074</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
-        <v>968</v>
+        <v>13</v>
       </c>
       <c r="I13" s="7">
-        <v>671561</v>
+        <v>8983</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="M13" s="7">
-        <v>1974</v>
+        <v>29</v>
       </c>
       <c r="N13" s="7">
-        <v>1375893</v>
+        <v>20058</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2656,49 +3005,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>64</v>
+        <v>248</v>
       </c>
       <c r="D14" s="7">
-        <v>46100</v>
+        <v>167881</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="H14" s="7">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="I14" s="7">
-        <v>38621</v>
+        <v>162354</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
-        <v>119</v>
+        <v>478</v>
       </c>
       <c r="N14" s="7">
-        <v>84722</v>
+        <v>330234</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2707,55 +3056,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>264</v>
+      </c>
+      <c r="D15" s="7">
+        <v>178955</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>243</v>
+      </c>
+      <c r="I15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>507</v>
+      </c>
+      <c r="N15" s="7">
+        <v>350292</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>64</v>
+      </c>
+      <c r="D16" s="7">
+        <v>46100</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H16" s="7">
+        <v>55</v>
+      </c>
+      <c r="I16" s="7">
+        <v>38621</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" s="7">
+        <v>119</v>
+      </c>
+      <c r="N16" s="7">
+        <v>84722</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1006</v>
+      </c>
+      <c r="D17" s="7">
+        <v>704333</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="7">
+        <v>968</v>
+      </c>
+      <c r="I17" s="7">
+        <v>671561</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1974</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1375893</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1070</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>750433</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1023</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>710182</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>2093</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1460615</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2768,8 +3278,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8550FC-5E42-476F-BBC6-73090F0E904A}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4E1CDE-431C-4AB3-B790-EEC277FD889A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2785,7 +3295,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2886,49 +3396,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>305</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>202899</v>
+        <v>4988</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="H4" s="7">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>185152</v>
+        <v>9565</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="M4" s="7">
-        <v>605</v>
+        <v>23</v>
       </c>
       <c r="N4" s="7">
-        <v>388051</v>
+        <v>14553</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2937,49 +3447,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="D5" s="7">
-        <v>10264</v>
+        <v>119176</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="H5" s="7">
-        <v>26</v>
+        <v>196</v>
       </c>
       <c r="I5" s="7">
-        <v>16116</v>
+        <v>122089</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="M5" s="7">
-        <v>42</v>
+        <v>375</v>
       </c>
       <c r="N5" s="7">
-        <v>26380</v>
+        <v>241265</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2988,10 +3498,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>213163</v>
+        <v>124164</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3003,10 +3513,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="I6" s="7">
-        <v>201268</v>
+        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3018,10 +3528,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>647</v>
+        <v>398</v>
       </c>
       <c r="N6" s="7">
-        <v>414431</v>
+        <v>255818</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3041,49 +3551,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>348</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7">
-        <v>239249</v>
+        <v>11425</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="H7" s="7">
-        <v>343</v>
+        <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>224922</v>
+        <v>14336</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="M7" s="7">
-        <v>691</v>
+        <v>41</v>
       </c>
       <c r="N7" s="7">
-        <v>464171</v>
+        <v>25760</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>89</v>
+        <v>212</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>125</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,49 +3602,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>15</v>
+        <v>363</v>
       </c>
       <c r="D8" s="7">
-        <v>10803</v>
+        <v>246636</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="H8" s="7">
-        <v>17</v>
+        <v>308</v>
       </c>
       <c r="I8" s="7">
-        <v>10411</v>
+        <v>196181</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="M8" s="7">
-        <v>32</v>
+        <v>671</v>
       </c>
       <c r="N8" s="7">
-        <v>21214</v>
+        <v>442818</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>97</v>
+        <v>220</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>133</v>
+        <v>221</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,10 +3653,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>250052</v>
+        <v>258061</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3158,10 +3668,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>235333</v>
+        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3173,10 +3683,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="N9" s="7">
-        <v>485385</v>
+        <v>468578</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3196,49 +3706,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>365</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>269810</v>
+        <v>9688</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>54</v>
+        <v>223</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c r="H10" s="7">
-        <v>361</v>
+        <v>11</v>
       </c>
       <c r="I10" s="7">
-        <v>257232</v>
+        <v>7556</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="M10" s="7">
-        <v>726</v>
+        <v>24</v>
       </c>
       <c r="N10" s="7">
-        <v>527043</v>
+        <v>17244</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,49 +3757,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>16</v>
+        <v>250</v>
       </c>
       <c r="D11" s="7">
-        <v>11819</v>
+        <v>178884</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>63</v>
+        <v>232</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>115</v>
+        <v>233</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>196</v>
+        <v>234</v>
       </c>
       <c r="H11" s="7">
-        <v>14</v>
+        <v>261</v>
       </c>
       <c r="I11" s="7">
-        <v>10538</v>
+        <v>181343</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="M11" s="7">
-        <v>30</v>
+        <v>511</v>
       </c>
       <c r="N11" s="7">
-        <v>22356</v>
+        <v>360227</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3298,10 +3808,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="D12" s="7">
-        <v>281629</v>
+        <v>188572</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3313,10 +3823,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="I12" s="7">
-        <v>267770</v>
+        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3328,10 +3838,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>756</v>
+        <v>535</v>
       </c>
       <c r="N12" s="7">
-        <v>549399</v>
+        <v>377471</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3345,55 +3855,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1018</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>711958</v>
+        <v>6785</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="H13" s="7">
-        <v>1004</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>667306</v>
+        <v>5609</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="M13" s="7">
-        <v>2022</v>
+        <v>16</v>
       </c>
       <c r="N13" s="7">
-        <v>1379264</v>
+        <v>12394</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,49 +3912,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>47</v>
+        <v>226</v>
       </c>
       <c r="D14" s="7">
-        <v>32886</v>
+        <v>167263</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="H14" s="7">
-        <v>57</v>
+        <v>239</v>
       </c>
       <c r="I14" s="7">
-        <v>37065</v>
+        <v>167692</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>214</v>
+        <v>48</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="M14" s="7">
-        <v>104</v>
+        <v>465</v>
       </c>
       <c r="N14" s="7">
-        <v>69951</v>
+        <v>334954</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3453,55 +3963,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>235</v>
+      </c>
+      <c r="D15" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>246</v>
+      </c>
+      <c r="I15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>481</v>
+      </c>
+      <c r="N15" s="7">
+        <v>347348</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>47</v>
+      </c>
+      <c r="D16" s="7">
+        <v>32886</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H16" s="7">
+        <v>57</v>
+      </c>
+      <c r="I16" s="7">
+        <v>37065</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="M16" s="7">
+        <v>104</v>
+      </c>
+      <c r="N16" s="7">
+        <v>69951</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D17" s="7">
+        <v>711958</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1004</v>
+      </c>
+      <c r="I17" s="7">
+        <v>667306</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2022</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1379264</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1065</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>744844</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1061</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>704371</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>2126</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1449215</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3514,8 +4185,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2BA442-A1CF-40A5-93FE-24DB09D4681D}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92B9E9A-59BA-47F3-A025-768EB2FEA3F2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3531,7 +4202,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3632,49 +4303,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>210</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>108796</v>
+        <v>2961</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>220</v>
+        <v>268</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>222</v>
+        <v>269</v>
       </c>
       <c r="H4" s="7">
-        <v>186</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>96769</v>
+        <v>4074</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>223</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>270</v>
       </c>
       <c r="M4" s="7">
-        <v>396</v>
+        <v>13</v>
       </c>
       <c r="N4" s="7">
-        <v>205564</v>
+        <v>7035</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>225</v>
+        <v>271</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>226</v>
+        <v>272</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>120</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,49 +4354,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="D5" s="7">
-        <v>9142</v>
+        <v>55542</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>227</v>
+        <v>274</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>228</v>
+        <v>275</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="H5" s="7">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="I5" s="7">
-        <v>7034</v>
+        <v>53295</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>230</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>276</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="M5" s="7">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c r="N5" s="7">
-        <v>16177</v>
+        <v>108836</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>129</v>
+        <v>278</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,10 +4405,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="D6" s="7">
-        <v>117938</v>
+        <v>58503</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3749,10 +4420,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="I6" s="7">
-        <v>103803</v>
+        <v>57369</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3764,10 +4435,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>426</v>
+        <v>225</v>
       </c>
       <c r="N6" s="7">
-        <v>221741</v>
+        <v>115871</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3787,49 +4458,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>251</v>
+        <v>24</v>
       </c>
       <c r="D7" s="7">
-        <v>190521</v>
+        <v>13931</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>223</v>
+        <v>280</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>234</v>
+        <v>281</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>235</v>
+        <v>282</v>
       </c>
       <c r="H7" s="7">
-        <v>267</v>
+        <v>15</v>
       </c>
       <c r="I7" s="7">
-        <v>189218</v>
+        <v>9317</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>236</v>
+        <v>283</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>238</v>
+        <v>284</v>
       </c>
       <c r="M7" s="7">
-        <v>518</v>
+        <v>39</v>
       </c>
       <c r="N7" s="7">
-        <v>379740</v>
+        <v>23249</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>239</v>
+        <v>14</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>240</v>
+        <v>281</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,49 +4509,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>19</v>
+        <v>251</v>
       </c>
       <c r="D8" s="7">
-        <v>13860</v>
+        <v>160694</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>230</v>
+        <v>286</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>242</v>
+        <v>287</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H8" s="7">
         <v>243</v>
       </c>
-      <c r="H8" s="7">
-        <v>14</v>
-      </c>
       <c r="I8" s="7">
-        <v>9049</v>
+        <v>149448</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>244</v>
+        <v>289</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>245</v>
+        <v>290</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M8" s="7">
-        <v>33</v>
+        <v>494</v>
       </c>
       <c r="N8" s="7">
-        <v>22909</v>
+        <v>310140</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>247</v>
+        <v>24</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>248</v>
+        <v>291</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3889,10 +4560,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D9" s="7">
-        <v>204381</v>
+        <v>174625</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3904,10 +4575,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="I9" s="7">
-        <v>198267</v>
+        <v>158765</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3919,10 +4590,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="N9" s="7">
-        <v>402649</v>
+        <v>333389</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3942,49 +4613,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>449</v>
+        <v>18</v>
       </c>
       <c r="D10" s="7">
-        <v>378690</v>
+        <v>15127</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>251</v>
+        <v>293</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>252</v>
+        <v>294</v>
       </c>
       <c r="H10" s="7">
-        <v>431</v>
+        <v>15</v>
       </c>
       <c r="I10" s="7">
-        <v>328983</v>
+        <v>10292</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>253</v>
+        <v>295</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>254</v>
+        <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="M10" s="7">
-        <v>880</v>
+        <v>33</v>
       </c>
       <c r="N10" s="7">
-        <v>707673</v>
+        <v>25420</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>258</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,49 +4664,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>30</v>
+        <v>225</v>
       </c>
       <c r="D11" s="7">
-        <v>24020</v>
+        <v>187351</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="H11" s="7">
-        <v>31</v>
+        <v>218</v>
       </c>
       <c r="I11" s="7">
-        <v>21825</v>
+        <v>165821</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>264</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
-        <v>61</v>
+        <v>443</v>
       </c>
       <c r="N11" s="7">
-        <v>45846</v>
+        <v>353171</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,10 +4715,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>479</v>
+        <v>243</v>
       </c>
       <c r="D12" s="7">
-        <v>402710</v>
+        <v>202478</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4059,10 +4730,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>462</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>350808</v>
+        <v>176113</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4074,10 +4745,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>941</v>
+        <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>753519</v>
+        <v>378591</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4091,55 +4762,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>910</v>
+        <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>678007</v>
+        <v>15003</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>55</v>
+        <v>308</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>269</v>
+        <v>310</v>
       </c>
       <c r="H13" s="7">
-        <v>884</v>
+        <v>20</v>
       </c>
       <c r="I13" s="7">
-        <v>614970</v>
+        <v>14225</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>311</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="M13" s="7">
-        <v>1794</v>
+        <v>39</v>
       </c>
       <c r="N13" s="7">
-        <v>1292977</v>
+        <v>29229</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,49 +4819,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>66</v>
+        <v>323</v>
       </c>
       <c r="D14" s="7">
-        <v>47023</v>
+        <v>274421</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>65</v>
+        <v>317</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>276</v>
+        <v>319</v>
       </c>
       <c r="H14" s="7">
-        <v>58</v>
+        <v>322</v>
       </c>
       <c r="I14" s="7">
-        <v>37909</v>
+        <v>246408</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>277</v>
+        <v>321</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="M14" s="7">
-        <v>124</v>
+        <v>645</v>
       </c>
       <c r="N14" s="7">
-        <v>84932</v>
+        <v>520828</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,55 +4870,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>342</v>
+      </c>
+      <c r="D15" s="7">
+        <v>289424</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>342</v>
+      </c>
+      <c r="I15" s="7">
+        <v>260633</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>684</v>
+      </c>
+      <c r="N15" s="7">
+        <v>550057</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>66</v>
+      </c>
+      <c r="D16" s="7">
+        <v>47023</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H16" s="7">
+        <v>58</v>
+      </c>
+      <c r="I16" s="7">
+        <v>37909</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="M16" s="7">
+        <v>124</v>
+      </c>
+      <c r="N16" s="7">
+        <v>84932</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>910</v>
+      </c>
+      <c r="D17" s="7">
+        <v>678007</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H17" s="7">
+        <v>884</v>
+      </c>
+      <c r="I17" s="7">
+        <v>614970</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1794</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1292977</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>976</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>725030</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>942</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>652879</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1918</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1377909</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/iP13_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP13_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71691D17-2EBA-476A-96C7-DF51C099B11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3D5FE04-DFD0-4C85-A4F6-4A4CDE72496E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2A87806F-586F-4DB4-B656-E0F8F28F49B3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{996E91EA-DA48-44DC-BFAD-4DADBC91337D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="346">
   <si>
     <t>Menores según si se han visto obligados a quedarse en cama mas de la mitad del dia por algún dolor o síntoma en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>7,1%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
   </si>
   <si>
     <t>6,97%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
   </si>
   <si>
     <t>7,04%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>92,9%</t>
   </si>
   <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
   </si>
   <si>
     <t>93,03%</t>
   </si>
   <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
   </si>
   <si>
     <t>92,96%</t>
   </si>
   <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,919 +140,943 @@
     <t>4,66%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
+    <t>2,86%</t>
   </si>
   <si>
     <t>4,42%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si se han visto obligados a quedarse en cama mas de la mitad del dia por algún dolor o síntoma en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>Menores según si se han visto obligados a quedarse en cama mas de la mitad del dia por algún dolor o síntoma en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
     <t>3,33%</t>
   </si>
   <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
   </si>
   <si>
     <t>96,67%</t>
   </si>
   <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si se han visto obligados a quedarse en cama mas de la mitad del dia por algún dolor o síntoma en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>Menores según si se han visto obligados a quedarse en cama mas de la mitad del dia por algún dolor o síntoma en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,91%</t>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>Menores según si se han visto obligados a quedarse en cama mas de la mitad del dia por algún dolor o síntoma en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
   </si>
   <si>
     <t>7,82%</t>
   </si>
   <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
   </si>
   <si>
     <t>92,18%</t>
   </si>
   <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>Menores según si se han visto obligados a quedarse en cama mas de la mitad del dia por algún dolor o síntoma en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
+    <t>96,75%</t>
   </si>
   <si>
     <t>94,54%</t>
   </si>
   <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
   </si>
   <si>
     <t>94,69%</t>
   </si>
   <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
   </si>
   <si>
     <t>5,81%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
   </si>
   <si>
     <t>6,16%</t>
   </si>
   <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
   </si>
   <si>
     <t>94,19%</t>
   </si>
   <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
   </si>
   <si>
     <t>93,84%</t>
   </si>
   <si>
-    <t>92,66%</t>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
   </si>
 </sst>
 </file>
@@ -1464,7 +1488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E953274B-9D4C-431C-AADB-4F4D214EEE6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401B9DC9-B3E2-4B6D-BAE4-F6B450F66290}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1749,7 +1773,7 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -1758,13 +1782,13 @@
         <v>11186</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -1773,13 +1797,13 @@
         <v>23000</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1794,13 +1818,13 @@
         <v>241942</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>361</v>
@@ -1809,13 +1833,13 @@
         <v>242019</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>725</v>
@@ -1824,13 +1848,13 @@
         <v>483961</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1886,7 +1910,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1898,13 +1922,13 @@
         <v>9191</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -1913,13 +1937,13 @@
         <v>3737</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -1928,13 +1952,13 @@
         <v>12928</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1949,13 +1973,13 @@
         <v>132324</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
         <v>186</v>
@@ -1964,13 +1988,13 @@
         <v>123811</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>384</v>
@@ -1979,13 +2003,13 @@
         <v>256135</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2041,7 +2065,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2053,13 +2077,13 @@
         <v>6513</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -2068,13 +2092,13 @@
         <v>8089</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -2083,13 +2107,13 @@
         <v>14602</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2104,13 +2128,13 @@
         <v>199536</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>274</v>
@@ -2119,13 +2143,13 @@
         <v>186008</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>574</v>
@@ -2134,13 +2158,13 @@
         <v>385544</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2208,13 +2232,13 @@
         <v>36130</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>47</v>
@@ -2223,13 +2247,13 @@
         <v>30410</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>102</v>
@@ -2238,13 +2262,13 @@
         <v>66540</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2259,13 +2283,13 @@
         <v>686570</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>971</v>
@@ -2274,13 +2298,13 @@
         <v>650611</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>2002</v>
@@ -2289,13 +2313,13 @@
         <v>1337181</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,7 +2375,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2371,7 +2395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4CA45B-D8A5-4312-8DF2-2E48DC12FC1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2814279B-28A8-4E7A-8E24-40878443EF53}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2388,7 +2412,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2495,13 +2519,13 @@
         <v>11744</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -2510,13 +2534,13 @@
         <v>12427</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M4" s="7">
         <v>34</v>
@@ -2525,13 +2549,13 @@
         <v>24170</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2546,13 +2570,13 @@
         <v>132172</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H5" s="7">
         <v>200</v>
@@ -2561,13 +2585,13 @@
         <v>133752</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M5" s="7">
         <v>388</v>
@@ -2576,13 +2600,13 @@
         <v>265925</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,13 +2674,13 @@
         <v>18879</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -2665,13 +2689,13 @@
         <v>11051</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -2680,13 +2704,13 @@
         <v>29930</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2701,7 +2725,7 @@
         <v>250112</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>132</v>
@@ -2793,7 +2817,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2811,7 +2835,7 @@
         <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -2820,13 +2844,13 @@
         <v>6161</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -2835,13 +2859,13 @@
         <v>10564</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,13 +2880,13 @@
         <v>154168</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H11" s="7">
         <v>214</v>
@@ -2871,13 +2895,13 @@
         <v>150882</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M11" s="7">
         <v>436</v>
@@ -2886,13 +2910,13 @@
         <v>305050</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,7 +2972,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2960,13 +2984,13 @@
         <v>11074</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -2975,13 +2999,13 @@
         <v>8983</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -2990,13 +3014,13 @@
         <v>20058</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,13 +3035,13 @@
         <v>167881</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H14" s="7">
         <v>230</v>
@@ -3026,13 +3050,13 @@
         <v>162354</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M14" s="7">
         <v>478</v>
@@ -3041,13 +3065,13 @@
         <v>330234</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,13 +3139,13 @@
         <v>46100</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>57</v>
+        <v>173</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -3130,13 +3154,13 @@
         <v>38621</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="M16" s="7">
         <v>119</v>
@@ -3145,13 +3169,13 @@
         <v>84722</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,13 +3190,13 @@
         <v>704333</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H17" s="7">
         <v>968</v>
@@ -3181,10 +3205,10 @@
         <v>671561</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>186</v>
@@ -3258,7 +3282,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3278,7 +3302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4E1CDE-431C-4AB3-B790-EEC277FD889A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02299FA3-7DE3-4363-8137-720A6EFE8E4C}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3402,13 +3426,13 @@
         <v>4988</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -3417,13 +3441,13 @@
         <v>9565</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -3432,10 +3456,10 @@
         <v>14553</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>198</v>
@@ -3453,13 +3477,13 @@
         <v>119176</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H5" s="7">
         <v>196</v>
@@ -3468,13 +3492,13 @@
         <v>122089</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M5" s="7">
         <v>375</v>
@@ -3483,13 +3507,13 @@
         <v>241265</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3563,7 +3587,7 @@
         <v>208</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>209</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -3611,10 +3635,10 @@
         <v>215</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H8" s="7">
         <v>308</v>
@@ -3623,7 +3647,7 @@
         <v>196181</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>218</v>
@@ -3700,7 +3724,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3712,13 +3736,13 @@
         <v>9688</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -3727,13 +3751,13 @@
         <v>7556</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -3742,13 +3766,13 @@
         <v>17244</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,13 +3787,13 @@
         <v>178884</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>232</v>
+        <v>115</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H11" s="7">
         <v>261</v>
@@ -3778,13 +3802,13 @@
         <v>181343</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>235</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M11" s="7">
         <v>511</v>
@@ -3793,13 +3817,13 @@
         <v>360227</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,7 +3879,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3867,13 +3891,13 @@
         <v>6785</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -3882,13 +3906,13 @@
         <v>5609</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -3897,13 +3921,13 @@
         <v>12394</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,13 +3942,13 @@
         <v>167263</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>175</v>
+        <v>246</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H14" s="7">
         <v>239</v>
@@ -3933,10 +3957,10 @@
         <v>167692</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>251</v>
@@ -4022,13 +4046,13 @@
         <v>32886</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>146</v>
+        <v>255</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H16" s="7">
         <v>57</v>
@@ -4037,13 +4061,13 @@
         <v>37065</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M16" s="7">
         <v>104</v>
@@ -4052,13 +4076,13 @@
         <v>69951</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>259</v>
+        <v>18</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>260</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>255</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,13 +4097,13 @@
         <v>711958</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>261</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
       <c r="H17" s="7">
         <v>1004</v>
@@ -4088,13 +4112,13 @@
         <v>667306</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M17" s="7">
         <v>2022</v>
@@ -4103,10 +4127,10 @@
         <v>1379264</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>265</v>
+        <v>29</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>261</v>
+        <v>187</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>266</v>
@@ -4165,7 +4189,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4185,7 +4209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92B9E9A-59BA-47F3-A025-768EB2FEA3F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5048C5-F60C-4EEF-B1BF-6ECCF014DC25}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4312,10 +4336,10 @@
         <v>268</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -4327,10 +4351,10 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>243</v>
+        <v>38</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -4339,13 +4363,13 @@
         <v>7035</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,13 +4384,13 @@
         <v>55542</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="H5" s="7">
         <v>101</v>
@@ -4378,10 +4402,10 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>250</v>
+        <v>47</v>
       </c>
       <c r="M5" s="7">
         <v>212</v>
@@ -4390,13 +4414,13 @@
         <v>108836</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,13 +4488,13 @@
         <v>13931</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -4479,13 +4503,13 @@
         <v>9317</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>243</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M7" s="7">
         <v>39</v>
@@ -4497,10 +4521,10 @@
         <v>14</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,13 +4539,13 @@
         <v>160694</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="H8" s="7">
         <v>243</v>
@@ -4530,13 +4554,13 @@
         <v>149448</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>250</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>494</v>
@@ -4548,10 +4572,10 @@
         <v>24</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,7 +4631,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4619,13 +4643,13 @@
         <v>15127</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -4634,13 +4658,13 @@
         <v>10292</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>295</v>
+        <v>245</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -4649,13 +4673,13 @@
         <v>25420</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,13 +4694,13 @@
         <v>187351</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="H11" s="7">
         <v>218</v>
@@ -4685,13 +4709,13 @@
         <v>165821</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>303</v>
+        <v>253</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>26</v>
+        <v>308</v>
       </c>
       <c r="M11" s="7">
         <v>443</v>
@@ -4700,13 +4724,13 @@
         <v>353171</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,7 +4786,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4774,13 +4798,13 @@
         <v>15003</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -4789,13 +4813,13 @@
         <v>14225</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -4804,13 +4828,13 @@
         <v>29229</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,13 +4849,13 @@
         <v>274421</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H14" s="7">
         <v>322</v>
@@ -4840,13 +4864,13 @@
         <v>246408</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M14" s="7">
         <v>645</v>
@@ -4855,13 +4879,13 @@
         <v>520828</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4929,13 +4953,13 @@
         <v>47023</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>281</v>
+        <v>330</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="H16" s="7">
         <v>58</v>
@@ -4944,13 +4968,13 @@
         <v>37909</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="M16" s="7">
         <v>124</v>
@@ -4959,13 +4983,13 @@
         <v>84932</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4980,13 +5004,13 @@
         <v>678007</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>288</v>
+        <v>339</v>
       </c>
       <c r="H17" s="7">
         <v>884</v>
@@ -4995,13 +5019,13 @@
         <v>614970</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="M17" s="7">
         <v>1794</v>
@@ -5010,13 +5034,13 @@
         <v>1292977</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>288</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,7 +5096,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/iP13_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP13_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3D5FE04-DFD0-4C85-A4F6-4A4CDE72496E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA8C890E-4EB7-45FF-A4E5-A9443FEF14D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{996E91EA-DA48-44DC-BFAD-4DADBC91337D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{21F444AA-0DC9-4657-B5B1-3E818E1FBC55}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="342">
   <si>
     <t>Menores según si se han visto obligados a quedarse en cama mas de la mitad del dia por algún dolor o síntoma en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,1009 +74,997 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
     <t>7,1%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
+    <t>11,47%</t>
   </si>
   <si>
     <t>7,04%</t>
   </si>
   <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si se han visto obligados a quedarse en cama mas de la mitad del dia por algún dolor o síntoma en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>Menores según si se han visto obligados a quedarse en cama mas de la mitad del dia por algún dolor o síntoma en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
     <t>4,83%</t>
   </si>
   <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
   </si>
   <si>
     <t>95,17%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>Menores según si se han visto obligados a quedarse en cama mas de la mitad del dia por algún dolor o síntoma en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
   </si>
   <si>
     <t>3,13%</t>
   </si>
   <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
   </si>
   <si>
     <t>96,87%</t>
   </si>
   <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si se han visto obligados a quedarse en cama mas de la mitad del dia por algún dolor o síntoma en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
   </si>
   <si>
     <t>95,18%</t>
   </si>
   <si>
-    <t>Menores según si se han visto obligados a quedarse en cama mas de la mitad del dia por algún dolor o síntoma en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
   </si>
   <si>
     <t>7,25%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
   </si>
   <si>
     <t>92,75%</t>
   </si>
   <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>Menores según si se han visto obligados a quedarse en cama mas de la mitad del dia por algún dolor o síntoma en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
+    <t>95,02%</t>
   </si>
 </sst>
 </file>
@@ -1488,7 +1476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401B9DC9-B3E2-4B6D-BAE4-F6B450F66290}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062D0DAF-C30C-489C-9749-DB73C2ABAD32}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1606,10 +1594,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>8612</v>
+        <v>7398</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1621,10 +1609,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>7398</v>
+        <v>8612</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1657,10 +1645,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="D5" s="7">
-        <v>112768</v>
+        <v>98773</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1672,10 +1660,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="I5" s="7">
-        <v>98773</v>
+        <v>112768</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1708,25 +1696,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>162</v>
+      </c>
+      <c r="D6" s="7">
+        <v>106171</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>182</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>121380</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>162</v>
-      </c>
-      <c r="I6" s="7">
-        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1764,7 +1752,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="7">
-        <v>11814</v>
+        <v>11186</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1773,22 +1761,22 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
       </c>
       <c r="I7" s="7">
-        <v>11186</v>
+        <v>11814</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -1797,13 +1785,13 @@
         <v>23000</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1812,34 +1800,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>361</v>
+      </c>
+      <c r="D8" s="7">
+        <v>242019</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="7">
         <v>364</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>241942</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="7">
-        <v>361</v>
-      </c>
-      <c r="I8" s="7">
-        <v>242019</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>725</v>
@@ -1848,13 +1836,13 @@
         <v>483961</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1863,25 +1851,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>379</v>
+      </c>
+      <c r="D9" s="7">
+        <v>253205</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>382</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>253756</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>379</v>
-      </c>
-      <c r="I9" s="7">
-        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1910,40 +1898,40 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3737</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="7">
         <v>14</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>9191</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="7">
-        <v>5</v>
-      </c>
-      <c r="I10" s="7">
-        <v>3737</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -1952,13 +1940,13 @@
         <v>12928</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1967,34 +1955,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>186</v>
+      </c>
+      <c r="D11" s="7">
+        <v>123811</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="7">
         <v>198</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>132324</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="7">
-        <v>186</v>
-      </c>
-      <c r="I11" s="7">
-        <v>123811</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>384</v>
@@ -2003,13 +1991,13 @@
         <v>256135</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2018,25 +2006,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>191</v>
+      </c>
+      <c r="D12" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>212</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>141515</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>191</v>
-      </c>
-      <c r="I12" s="7">
-        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2065,40 +2053,40 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>12</v>
+      </c>
+      <c r="D13" s="7">
+        <v>8089</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="7">
         <v>10</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>6513</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="7">
-        <v>12</v>
-      </c>
-      <c r="I13" s="7">
-        <v>8089</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -2107,13 +2095,13 @@
         <v>14602</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2122,34 +2110,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>274</v>
+      </c>
+      <c r="D14" s="7">
+        <v>186008</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="7">
         <v>300</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>199536</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="7">
-        <v>274</v>
-      </c>
-      <c r="I14" s="7">
-        <v>186008</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>574</v>
@@ -2158,13 +2146,13 @@
         <v>385544</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2173,25 +2161,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>286</v>
+      </c>
+      <c r="D15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>310</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>206049</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>286</v>
-      </c>
-      <c r="I15" s="7">
-        <v>194097</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2226,34 +2214,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>47</v>
+      </c>
+      <c r="D16" s="7">
+        <v>30410</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
         <v>55</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>36130</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" s="7">
-        <v>47</v>
-      </c>
-      <c r="I16" s="7">
-        <v>30410</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>102</v>
@@ -2262,13 +2250,13 @@
         <v>66540</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,34 +2265,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>971</v>
+      </c>
+      <c r="D17" s="7">
+        <v>650611</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="7">
         <v>1031</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>686570</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" s="7">
-        <v>971</v>
-      </c>
-      <c r="I17" s="7">
-        <v>650611</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>2002</v>
@@ -2313,13 +2301,13 @@
         <v>1337181</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2328,25 +2316,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>681021</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1086</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2375,7 +2363,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2395,7 +2383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2814279B-28A8-4E7A-8E24-40878443EF53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE24B31-B306-4D74-93C2-53F1C2C72169}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2412,7 +2400,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2513,34 +2501,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>18</v>
+      </c>
+      <c r="D4" s="7">
+        <v>12427</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="7">
         <v>16</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>11744</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H4" s="7">
-        <v>18</v>
-      </c>
-      <c r="I4" s="7">
-        <v>12427</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M4" s="7">
         <v>34</v>
@@ -2549,13 +2537,13 @@
         <v>24170</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2564,34 +2552,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>200</v>
+      </c>
+      <c r="D5" s="7">
+        <v>133752</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="7">
         <v>188</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>132172</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H5" s="7">
-        <v>200</v>
-      </c>
-      <c r="I5" s="7">
-        <v>133752</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="M5" s="7">
         <v>388</v>
@@ -2600,13 +2588,13 @@
         <v>265925</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2615,25 +2603,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>218</v>
+      </c>
+      <c r="D6" s="7">
+        <v>146179</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>204</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>143916</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>218</v>
-      </c>
-      <c r="I6" s="7">
-        <v>146179</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2668,34 +2656,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>15</v>
+      </c>
+      <c r="D7" s="7">
+        <v>11051</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="7">
         <v>26</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>18879</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H7" s="7">
-        <v>15</v>
-      </c>
-      <c r="I7" s="7">
-        <v>11051</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -2704,13 +2692,13 @@
         <v>29930</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2719,34 +2707,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>324</v>
+      </c>
+      <c r="D8" s="7">
+        <v>224572</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="7">
         <v>348</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>250112</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H8" s="7">
-        <v>324</v>
-      </c>
-      <c r="I8" s="7">
-        <v>224572</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
         <v>672</v>
@@ -2755,13 +2743,13 @@
         <v>474685</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2770,25 +2758,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>339</v>
+      </c>
+      <c r="D9" s="7">
+        <v>235623</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>374</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>268991</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>339</v>
-      </c>
-      <c r="I9" s="7">
-        <v>235623</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2817,40 +2805,40 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>9</v>
+      </c>
+      <c r="D10" s="7">
+        <v>6161</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="7">
         <v>6</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>4403</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H10" s="7">
-        <v>9</v>
-      </c>
-      <c r="I10" s="7">
-        <v>6161</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -2859,13 +2847,13 @@
         <v>10564</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2874,34 +2862,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>214</v>
+      </c>
+      <c r="D11" s="7">
+        <v>150882</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" s="7">
         <v>222</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>154168</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H11" s="7">
-        <v>214</v>
-      </c>
-      <c r="I11" s="7">
-        <v>150882</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
         <v>436</v>
@@ -2910,13 +2898,13 @@
         <v>305050</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2925,25 +2913,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>223</v>
+      </c>
+      <c r="D12" s="7">
+        <v>157043</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>228</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>158571</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>223</v>
-      </c>
-      <c r="I12" s="7">
-        <v>157043</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2972,40 +2960,40 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>13</v>
+      </c>
+      <c r="D13" s="7">
+        <v>8983</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H13" s="7">
         <v>16</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>11074</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H13" s="7">
-        <v>13</v>
-      </c>
-      <c r="I13" s="7">
-        <v>8983</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -3014,13 +3002,13 @@
         <v>20058</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,34 +3017,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>230</v>
+      </c>
+      <c r="D14" s="7">
+        <v>162354</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="7">
         <v>248</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>167881</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H14" s="7">
-        <v>230</v>
-      </c>
-      <c r="I14" s="7">
-        <v>162354</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
         <v>478</v>
@@ -3065,13 +3053,13 @@
         <v>330234</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,25 +3068,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>243</v>
+      </c>
+      <c r="D15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>264</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>178955</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>243</v>
-      </c>
-      <c r="I15" s="7">
-        <v>171337</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3133,34 +3121,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>55</v>
+      </c>
+      <c r="D16" s="7">
+        <v>38621</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="7">
         <v>64</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>46100</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H16" s="7">
-        <v>55</v>
-      </c>
-      <c r="I16" s="7">
-        <v>38621</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="M16" s="7">
         <v>119</v>
@@ -3169,13 +3157,13 @@
         <v>84722</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>179</v>
+        <v>57</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3184,34 +3172,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>968</v>
+      </c>
+      <c r="D17" s="7">
+        <v>671561</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H17" s="7">
         <v>1006</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>704333</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="H17" s="7">
-        <v>968</v>
-      </c>
-      <c r="I17" s="7">
-        <v>671561</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>184</v>
+        <v>48</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M17" s="7">
         <v>1974</v>
@@ -3220,13 +3208,13 @@
         <v>1375893</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>189</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,25 +3223,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1023</v>
+      </c>
+      <c r="D18" s="7">
+        <v>710182</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1070</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>750433</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1023</v>
-      </c>
-      <c r="I18" s="7">
-        <v>710182</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3282,7 +3270,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3302,7 +3290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02299FA3-7DE3-4363-8137-720A6EFE8E4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49BE1C0B-9516-4EF7-B6C3-95881CD87E00}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3319,7 +3307,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3420,34 +3408,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7">
+        <v>9565</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H4" s="7">
         <v>8</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>4988</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="H4" s="7">
-        <v>15</v>
-      </c>
-      <c r="I4" s="7">
-        <v>9565</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -3456,13 +3444,13 @@
         <v>14553</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,34 +3459,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>196</v>
+      </c>
+      <c r="D5" s="7">
+        <v>122089</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H5" s="7">
         <v>179</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>119176</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H5" s="7">
-        <v>196</v>
-      </c>
-      <c r="I5" s="7">
-        <v>122089</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M5" s="7">
         <v>375</v>
@@ -3507,13 +3495,13 @@
         <v>241265</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>166</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,25 +3510,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>211</v>
+      </c>
+      <c r="D6" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>187</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>124164</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>211</v>
-      </c>
-      <c r="I6" s="7">
-        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3575,34 +3563,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>24</v>
+      </c>
+      <c r="D7" s="7">
+        <v>14336</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H7" s="7">
         <v>17</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>11425</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="7">
-        <v>24</v>
-      </c>
-      <c r="I7" s="7">
-        <v>14336</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -3611,13 +3599,13 @@
         <v>25760</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,34 +3614,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>308</v>
+      </c>
+      <c r="D8" s="7">
+        <v>196181</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8" s="7">
         <v>363</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>246636</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="H8" s="7">
-        <v>308</v>
-      </c>
-      <c r="I8" s="7">
-        <v>196181</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M8" s="7">
         <v>671</v>
@@ -3662,13 +3650,13 @@
         <v>442818</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,25 +3665,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>332</v>
+      </c>
+      <c r="D9" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>380</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>258061</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>332</v>
-      </c>
-      <c r="I9" s="7">
-        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3724,40 +3712,40 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>11</v>
+      </c>
+      <c r="D10" s="7">
+        <v>7556</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H10" s="7">
         <v>13</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>9688</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H10" s="7">
-        <v>11</v>
-      </c>
-      <c r="I10" s="7">
-        <v>7556</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -3766,13 +3754,13 @@
         <v>17244</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,34 +3769,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>261</v>
+      </c>
+      <c r="D11" s="7">
+        <v>181343</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" s="7">
         <v>250</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>178884</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="J11" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="H11" s="7">
-        <v>261</v>
-      </c>
-      <c r="I11" s="7">
-        <v>181343</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M11" s="7">
         <v>511</v>
@@ -3817,13 +3805,13 @@
         <v>360227</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,25 +3820,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>272</v>
+      </c>
+      <c r="D12" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>263</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>188572</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>272</v>
-      </c>
-      <c r="I12" s="7">
-        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3879,40 +3867,40 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>7</v>
+      </c>
+      <c r="D13" s="7">
+        <v>5609</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H13" s="7">
         <v>9</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>6785</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="H13" s="7">
-        <v>7</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5609</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -3921,13 +3909,13 @@
         <v>12394</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,34 +3924,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>239</v>
+      </c>
+      <c r="D14" s="7">
+        <v>167692</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H14" s="7">
         <v>226</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>167263</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H14" s="7">
-        <v>239</v>
-      </c>
-      <c r="I14" s="7">
-        <v>167692</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M14" s="7">
         <v>465</v>
@@ -3972,13 +3960,13 @@
         <v>334954</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,25 +3975,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>246</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>235</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>174048</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>246</v>
-      </c>
-      <c r="I15" s="7">
-        <v>173301</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4040,34 +4028,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>57</v>
+      </c>
+      <c r="D16" s="7">
+        <v>37065</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H16" s="7">
         <v>47</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>32886</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H16" s="7">
-        <v>57</v>
-      </c>
-      <c r="I16" s="7">
-        <v>37065</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M16" s="7">
         <v>104</v>
@@ -4076,13 +4064,13 @@
         <v>69951</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>18</v>
+        <v>256</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>178</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,34 +4079,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>1004</v>
+      </c>
+      <c r="D17" s="7">
+        <v>667306</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H17" s="7">
         <v>1018</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>711958</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="H17" s="7">
-        <v>1004</v>
-      </c>
-      <c r="I17" s="7">
-        <v>667306</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M17" s="7">
         <v>2022</v>
@@ -4127,10 +4115,10 @@
         <v>1379264</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>29</v>
+        <v>264</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>187</v>
+        <v>265</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>266</v>
@@ -4142,25 +4130,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1061</v>
+      </c>
+      <c r="D18" s="7">
+        <v>704371</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1065</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4189,7 +4177,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4209,7 +4197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5048C5-F60C-4EEF-B1BF-6ECCF014DC25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE2323D-5641-4557-A65B-72EE553DB7E6}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4327,10 +4315,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>2961</v>
+        <v>3969</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>268</v>
@@ -4342,34 +4330,34 @@
         <v>270</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>4074</v>
+        <v>3255</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>38</v>
+        <v>271</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
       </c>
       <c r="N4" s="7">
-        <v>7035</v>
+        <v>7224</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,49 +4366,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>101</v>
+      </c>
+      <c r="D5" s="7">
+        <v>53542</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H5" s="7">
         <v>111</v>
       </c>
-      <c r="D5" s="7">
-        <v>55542</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H5" s="7">
-        <v>101</v>
-      </c>
       <c r="I5" s="7">
-        <v>53295</v>
+        <v>58189</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>47</v>
+        <v>280</v>
       </c>
       <c r="M5" s="7">
         <v>212</v>
       </c>
       <c r="N5" s="7">
-        <v>108836</v>
+        <v>111731</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,25 +4417,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>109</v>
+      </c>
+      <c r="D6" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>116</v>
       </c>
-      <c r="D6" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>109</v>
-      </c>
       <c r="I6" s="7">
-        <v>57369</v>
+        <v>61444</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4462,7 +4450,7 @@
         <v>225</v>
       </c>
       <c r="N6" s="7">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4482,49 +4470,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>15</v>
+      </c>
+      <c r="D7" s="7">
+        <v>9081</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H7" s="7">
         <v>24</v>
       </c>
-      <c r="D7" s="7">
-        <v>13931</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="H7" s="7">
-        <v>15</v>
-      </c>
       <c r="I7" s="7">
-        <v>9317</v>
+        <v>14470</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>38</v>
+        <v>288</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M7" s="7">
         <v>39</v>
       </c>
       <c r="N7" s="7">
-        <v>23249</v>
+        <v>23551</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>268</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,49 +4521,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>243</v>
+      </c>
+      <c r="D8" s="7">
+        <v>150218</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H8" s="7">
         <v>251</v>
       </c>
-      <c r="D8" s="7">
-        <v>160694</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="H8" s="7">
-        <v>243</v>
-      </c>
       <c r="I8" s="7">
-        <v>149448</v>
+        <v>167360</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>297</v>
       </c>
       <c r="M8" s="7">
         <v>494</v>
       </c>
       <c r="N8" s="7">
-        <v>310140</v>
+        <v>317579</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>24</v>
+        <v>276</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,25 +4572,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>275</v>
       </c>
-      <c r="D9" s="7">
-        <v>174625</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>181830</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4617,7 +4605,7 @@
         <v>533</v>
       </c>
       <c r="N9" s="7">
-        <v>333389</v>
+        <v>341130</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4631,55 +4619,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>15</v>
+      </c>
+      <c r="D10" s="7">
+        <v>10549</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H10" s="7">
         <v>18</v>
       </c>
-      <c r="D10" s="7">
-        <v>15127</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="H10" s="7">
-        <v>15</v>
-      </c>
       <c r="I10" s="7">
-        <v>10292</v>
+        <v>15688</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>245</v>
+        <v>303</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>299</v>
+        <v>224</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
       </c>
       <c r="N10" s="7">
-        <v>25420</v>
+        <v>26237</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,49 +4676,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>218</v>
+      </c>
+      <c r="D11" s="7">
+        <v>162523</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H11" s="7">
         <v>225</v>
       </c>
-      <c r="D11" s="7">
-        <v>187351</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="H11" s="7">
-        <v>218</v>
-      </c>
       <c r="I11" s="7">
-        <v>165821</v>
+        <v>196802</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>253</v>
+        <v>311</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>308</v>
+        <v>232</v>
       </c>
       <c r="M11" s="7">
         <v>443</v>
       </c>
       <c r="N11" s="7">
-        <v>353171</v>
+        <v>359326</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4739,25 +4727,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4772,7 +4760,7 @@
         <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4786,55 +4774,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>20</v>
+      </c>
+      <c r="D13" s="7">
+        <v>13839</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H13" s="7">
         <v>19</v>
       </c>
-      <c r="D13" s="7">
-        <v>15003</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H13" s="7">
-        <v>20</v>
-      </c>
       <c r="I13" s="7">
-        <v>14225</v>
+        <v>15004</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>317</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
       </c>
       <c r="N13" s="7">
-        <v>29229</v>
+        <v>28842</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,49 +4831,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>322</v>
+      </c>
+      <c r="D14" s="7">
+        <v>261619</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="D14" s="7">
-        <v>274421</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>322</v>
-      </c>
       <c r="G14" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H14" s="7">
         <v>323</v>
       </c>
-      <c r="H14" s="7">
-        <v>322</v>
-      </c>
       <c r="I14" s="7">
-        <v>246408</v>
+        <v>290479</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>324</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>325</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>326</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>645</v>
       </c>
       <c r="N14" s="7">
-        <v>520828</v>
+        <v>552098</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,7 +4885,7 @@
         <v>342</v>
       </c>
       <c r="D15" s="7">
-        <v>289424</v>
+        <v>275458</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4912,7 +4900,7 @@
         <v>342</v>
       </c>
       <c r="I15" s="7">
-        <v>260633</v>
+        <v>305483</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4927,7 +4915,7 @@
         <v>684</v>
       </c>
       <c r="N15" s="7">
-        <v>550057</v>
+        <v>580940</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4947,49 +4935,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>58</v>
+      </c>
+      <c r="D16" s="7">
+        <v>37437</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H16" s="7">
         <v>66</v>
       </c>
-      <c r="D16" s="7">
-        <v>47023</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>48417</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="H16" s="7">
-        <v>58</v>
-      </c>
-      <c r="I16" s="7">
-        <v>37909</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M16" s="7">
         <v>124</v>
       </c>
       <c r="N16" s="7">
-        <v>84932</v>
+        <v>85854</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,49 +4986,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>884</v>
+      </c>
+      <c r="D17" s="7">
+        <v>627903</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H17" s="7">
         <v>910</v>
       </c>
-      <c r="D17" s="7">
-        <v>678007</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>712831</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="H17" s="7">
-        <v>884</v>
-      </c>
-      <c r="I17" s="7">
-        <v>614970</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>341</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="M17" s="7">
         <v>1794</v>
       </c>
       <c r="N17" s="7">
-        <v>1292977</v>
+        <v>1340734</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5049,25 +5037,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>942</v>
+      </c>
+      <c r="D18" s="7">
+        <v>665340</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>976</v>
       </c>
-      <c r="D18" s="7">
-        <v>725030</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>942</v>
-      </c>
       <c r="I18" s="7">
-        <v>652879</v>
+        <v>761248</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5082,7 +5070,7 @@
         <v>1918</v>
       </c>
       <c r="N18" s="7">
-        <v>1377909</v>
+        <v>1426588</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5096,7 +5084,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
